--- a/data_template/sheet/NoviceGuide.xlsx
+++ b/data_template/sheet/NoviceGuide.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1DC57F-3F3C-4DA9-A38F-F3B15F7FE30F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A33C18E-F9A1-462A-91DE-E0D70B88C10B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2220" windowWidth="34365" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoviceGuide" sheetId="2" r:id="rId1"/>
@@ -565,13 +565,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -876,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -897,7 +894,7 @@
     <col min="16" max="16" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -945,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -993,7 +990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1041,219 +1038,208 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>11</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="3" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
-      <c r="B9" s="3">
+    <row r="9" spans="1:16">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1">
